--- a/templates/PM-BJ-Lamp_2.xlsx
+++ b/templates/PM-BJ-Lamp_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -31,18 +31,9 @@
     <t>U R A I A N</t>
   </si>
   <si>
-    <t>NOMOR     : ..................................................</t>
-  </si>
-  <si>
-    <t>TANGGAL : ..................................................</t>
-  </si>
-  <si>
     <t>JASA BORONGAN PEKERJAAN PENGADAAN DAN PEMASANGAN</t>
   </si>
   <si>
-    <t>PT PLN (PERSERO) ...........................</t>
-  </si>
-  <si>
     <t>SATUAN</t>
   </si>
   <si>
@@ -170,6 +161,15 @@
   </si>
   <si>
     <t>RENCANA KERJA &amp; SYARAT-SYARAT (RKS) PEMILIHAN LANGSUNG</t>
+  </si>
+  <si>
+    <t>NOMOR     : #nomor#</t>
+  </si>
+  <si>
+    <t>TANGGAL : #tanggal#</t>
+  </si>
+  <si>
+    <t>PT PLN (PERSERO) KANTOR PUSAT</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="3" spans="3:7" ht="15">
       <c r="C3" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -863,7 +863,7 @@
     </row>
     <row r="4" spans="3:7" ht="15">
       <c r="C4" s="32" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -872,7 +872,7 @@
     </row>
     <row r="5" spans="3:7" ht="15">
       <c r="C5" s="32" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="6" spans="3:7" ht="15">
       <c r="C6" s="32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="7" spans="3:7" ht="15">
       <c r="C7" s="32" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>2</v>
@@ -935,18 +935,18 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1"/>
@@ -955,7 +955,7 @@
     <row r="13" spans="3:7">
       <c r="C13" s="23"/>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="1"/>
@@ -964,7 +964,7 @@
     <row r="14" spans="3:7">
       <c r="C14" s="23"/>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="1"/>
@@ -973,7 +973,7 @@
     <row r="15" spans="3:7">
       <c r="C15" s="23"/>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
@@ -982,7 +982,7 @@
     <row r="16" spans="3:7" ht="13.5" thickBot="1">
       <c r="C16" s="23"/>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
@@ -991,7 +991,7 @@
     <row r="17" spans="3:7" ht="13.5" thickBot="1">
       <c r="C17" s="23"/>
       <c r="D17" s="20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -999,10 +999,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
@@ -1011,7 +1011,7 @@
     <row r="19" spans="3:7">
       <c r="C19" s="23"/>
       <c r="D19" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="1"/>
@@ -1020,7 +1020,7 @@
     <row r="20" spans="3:7">
       <c r="C20" s="23"/>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="1"/>
@@ -1029,7 +1029,7 @@
     <row r="21" spans="3:7">
       <c r="C21" s="23"/>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="1"/>
@@ -1038,7 +1038,7 @@
     <row r="22" spans="3:7">
       <c r="C22" s="23"/>
       <c r="D22" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="1"/>
@@ -1047,7 +1047,7 @@
     <row r="23" spans="3:7">
       <c r="C23" s="23"/>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="1"/>
@@ -1056,7 +1056,7 @@
     <row r="24" spans="3:7">
       <c r="C24" s="23"/>
       <c r="D24" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="1"/>
@@ -1065,7 +1065,7 @@
     <row r="25" spans="3:7">
       <c r="C25" s="23"/>
       <c r="D25" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="1"/>
@@ -1074,7 +1074,7 @@
     <row r="26" spans="3:7">
       <c r="C26" s="23"/>
       <c r="D26" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="1"/>
@@ -1083,7 +1083,7 @@
     <row r="27" spans="3:7">
       <c r="C27" s="23"/>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="1"/>
@@ -1092,7 +1092,7 @@
     <row r="28" spans="3:7">
       <c r="C28" s="23"/>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="1"/>
@@ -1101,7 +1101,7 @@
     <row r="29" spans="3:7">
       <c r="C29" s="23"/>
       <c r="D29" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="1"/>
@@ -1110,7 +1110,7 @@
     <row r="30" spans="3:7" ht="13.5" thickBot="1">
       <c r="C30" s="23"/>
       <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="1"/>
@@ -1119,7 +1119,7 @@
     <row r="31" spans="3:7" ht="13.5" thickBot="1">
       <c r="C31" s="23"/>
       <c r="D31" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="1"/>
@@ -1139,7 +1139,7 @@
     <row r="33" spans="3:7">
       <c r="C33" s="23"/>
       <c r="D33" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="1"/>
@@ -1148,7 +1148,7 @@
     <row r="34" spans="3:7" ht="13.5" thickBot="1">
       <c r="C34" s="23"/>
       <c r="D34" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="1"/>
@@ -1157,7 +1157,7 @@
     <row r="35" spans="3:7" ht="13.5" thickBot="1">
       <c r="C35" s="23"/>
       <c r="D35" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="1"/>
@@ -1177,7 +1177,7 @@
     <row r="37" spans="3:7">
       <c r="C37" s="23"/>
       <c r="D37" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="1"/>
@@ -1186,7 +1186,7 @@
     <row r="38" spans="3:7" ht="13.5" thickBot="1">
       <c r="C38" s="23"/>
       <c r="D38" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="1"/>
@@ -1195,7 +1195,7 @@
     <row r="39" spans="3:7" ht="13.5" thickBot="1">
       <c r="C39" s="23"/>
       <c r="D39" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="1"/>
@@ -1215,7 +1215,7 @@
     <row r="41" spans="3:7">
       <c r="C41" s="23"/>
       <c r="D41" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="1"/>
@@ -1224,7 +1224,7 @@
     <row r="42" spans="3:7">
       <c r="C42" s="23"/>
       <c r="D42" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="1"/>
@@ -1233,7 +1233,7 @@
     <row r="43" spans="3:7" ht="13.5" thickBot="1">
       <c r="C43" s="23"/>
       <c r="D43" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="1"/>
@@ -1242,7 +1242,7 @@
     <row r="44" spans="3:7" ht="13.5" thickBot="1">
       <c r="C44" s="23"/>
       <c r="D44" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="1"/>
@@ -1262,7 +1262,7 @@
     <row r="46" spans="3:7">
       <c r="C46" s="23"/>
       <c r="D46" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="1"/>
@@ -1271,7 +1271,7 @@
     <row r="47" spans="3:7">
       <c r="C47" s="23"/>
       <c r="D47" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="1"/>
@@ -1280,7 +1280,7 @@
     <row r="48" spans="3:7" ht="13.5" thickBot="1">
       <c r="C48" s="23"/>
       <c r="D48" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="1"/>
@@ -1289,7 +1289,7 @@
     <row r="49" spans="3:7" ht="13.5" thickBot="1">
       <c r="C49" s="23"/>
       <c r="D49" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="50" spans="3:7">
       <c r="C50" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="1"/>
@@ -1309,7 +1309,7 @@
     <row r="51" spans="3:7">
       <c r="C51" s="23"/>
       <c r="D51" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="1"/>
@@ -1318,7 +1318,7 @@
     <row r="52" spans="3:7">
       <c r="C52" s="23"/>
       <c r="D52" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="1"/>
@@ -1327,7 +1327,7 @@
     <row r="53" spans="3:7" ht="13.5" thickBot="1">
       <c r="C53" s="23"/>
       <c r="D53" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="1"/>
@@ -1336,7 +1336,7 @@
     <row r="54" spans="3:7" ht="13.5" thickBot="1">
       <c r="C54" s="23"/>
       <c r="D54" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="55" spans="3:7">
       <c r="C55" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="1"/>
@@ -1356,7 +1356,7 @@
     <row r="56" spans="3:7">
       <c r="C56" s="4"/>
       <c r="D56" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="1"/>
@@ -1365,7 +1365,7 @@
     <row r="57" spans="3:7" ht="13.5" thickBot="1">
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="1"/>
@@ -1374,7 +1374,7 @@
     <row r="58" spans="3:7" ht="13.5" thickBot="1">
       <c r="C58" s="4"/>
       <c r="D58" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="64" spans="3:7">
       <c r="C64" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="65" spans="1:7" ht="13.5" thickBot="1">
       <c r="C65" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="66" spans="1:7" ht="13.5" thickBot="1">
       <c r="C66" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="2"/>
